--- a/src/pom/ExcelData/LeaveAndAttendance/OnBehalfLeaveApplication.xlsx
+++ b/src/pom/ExcelData/LeaveAndAttendance/OnBehalfLeaveApplication.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8340" activeTab="2"/>
+    <workbookView windowWidth="20400" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="apply on behalf leave" sheetId="1" r:id="rId1"/>
     <sheet name="OnBehalfApproval" sheetId="2" r:id="rId2"/>
     <sheet name="OnBehalfLeaveVerify" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -54,13 +54,13 @@
     <t>Employee Code</t>
   </si>
   <si>
-    <t>00390</t>
-  </si>
-  <si>
-    <t>Annual Leave</t>
-  </si>
-  <si>
-    <t>09/10/2017</t>
+    <t>OS000000</t>
+  </si>
+  <si>
+    <t>Privilege Leave</t>
+  </si>
+  <si>
+    <t>09/12/2017</t>
   </si>
   <si>
     <t>1</t>
@@ -81,13 +81,13 @@
     <t>Submit</t>
   </si>
   <si>
-    <t>09-OCT-17</t>
-  </si>
-  <si>
-    <t>10/10/2017</t>
-  </si>
-  <si>
-    <t>10-OCT-17</t>
+    <t>09-DEC-17</t>
+  </si>
+  <si>
+    <t>10/12/2017</t>
+  </si>
+  <si>
+    <t>10-DEC-17</t>
   </si>
   <si>
     <t>SearchDrodpwon</t>
@@ -105,16 +105,16 @@
     <t>Leave Submitted</t>
   </si>
   <si>
-    <t>09/Oct/2017</t>
+    <t>09/Dec/2017</t>
   </si>
   <si>
     <t>Reject By Reporting Manager</t>
   </si>
   <si>
-    <t>10/Oct/2017</t>
-  </si>
-  <si>
-    <t>Reporting Manager Approved</t>
+    <t>10/Dec/2017</t>
+  </si>
+  <si>
+    <t>Approve By Reporting Manager</t>
   </si>
   <si>
     <t>Rejected By Reporting Manager</t>
@@ -128,10 +128,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -215,7 +215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -224,9 +224,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -235,7 +232,6 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -586,7 +582,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="2"/>
@@ -611,31 +607,31 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -643,34 +639,34 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -678,34 +674,34 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -721,8 +717,8 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -748,30 +744,30 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -787,8 +783,8 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -817,13 +813,13 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -831,13 +827,13 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>34</v>
       </c>
     </row>
